--- a/export/export/console_data_all.xlsx
+++ b/export/export/console_data_all.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,7 +976,61 @@
         <v>151.1600036621094</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09163293047884202</v>
+        <v>0.091632930478842</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45583.72537600649</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1mo</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>228.238260683806</v>
+      </c>
+      <c r="E21" t="n">
+        <v>235.0700073242188</v>
+      </c>
+      <c r="F21" t="n">
+        <v>220.6900024414062</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0630043571122989</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45583.73676932662</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>222.6064910888672</v>
+      </c>
+      <c r="E22" t="n">
+        <v>233</v>
+      </c>
+      <c r="F22" t="n">
+        <v>206.9904022216797</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1168411471341012</v>
       </c>
     </row>
   </sheetData>

--- a/export/export/console_data_all.xlsx
+++ b/export/export/console_data_all.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,11 @@
           <t>Колебания цены</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Стандартное отклонение</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -500,6 +505,7 @@
       <c r="G2" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -527,6 +533,7 @@
       <c r="G3" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -554,6 +561,7 @@
       <c r="G4" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -581,6 +589,7 @@
       <c r="G5" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -608,6 +617,7 @@
       <c r="G6" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -635,6 +645,7 @@
       <c r="G7" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -662,6 +673,7 @@
       <c r="G8" t="n">
         <v>0.0740014437818588</v>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -689,6 +701,7 @@
       <c r="G9" t="n">
         <v>0.0982092600173317</v>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -716,6 +729,7 @@
       <c r="G10" t="n">
         <v>0.06855722126575731</v>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -735,6 +749,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -762,6 +777,7 @@
       <c r="G12" t="n">
         <v>0.07395830628288751</v>
       </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -789,6 +805,7 @@
       <c r="G13" t="n">
         <v>0.07395031850360539</v>
       </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -816,6 +833,7 @@
       <c r="G14" t="n">
         <v>0.0739626509061173</v>
       </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -843,6 +861,7 @@
       <c r="G15" t="n">
         <v>0.0749662668790884</v>
       </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -870,6 +889,7 @@
       <c r="G16" t="n">
         <v>0.0750783214608586</v>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -897,6 +917,7 @@
       <c r="G17" t="n">
         <v>0.1814008949828066</v>
       </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -924,6 +945,7 @@
       <c r="G18" t="n">
         <v>0.0688411552325755</v>
       </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -951,6 +973,7 @@
       <c r="G19" t="n">
         <v>0.0701780611874598</v>
       </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -978,6 +1001,7 @@
       <c r="G20" t="n">
         <v>0.091632930478842</v>
       </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1005,6 +1029,7 @@
       <c r="G21" t="n">
         <v>0.0630043571122989</v>
       </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1030,7 +1055,68 @@
         <v>206.9904022216797</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1168411471341012</v>
+        <v>0.1168411471341011</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45590.93847372707</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1mo</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>229.6982607634171</v>
+      </c>
+      <c r="E23" t="n">
+        <v>236.479995727539</v>
+      </c>
+      <c r="F23" t="n">
+        <v>221.6900024414062</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0643887909162973</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.741387901766533</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45590.94159633127</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>167.5711228847504</v>
+      </c>
+      <c r="E24" t="n">
+        <v>190.9266357421875</v>
+      </c>
+      <c r="F24" t="n">
+        <v>148.6600036621094</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2522310010964577</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11.0649812875216</v>
       </c>
     </row>
   </sheetData>

--- a/export/export/console_data_all.xlsx
+++ b/export/export/console_data_all.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1119,156 @@
         <v>11.0649812875216</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45590.95753518782</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3mo</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>418.4472235477332</v>
+      </c>
+      <c r="E25" t="n">
+        <v>438.6900024414063</v>
+      </c>
+      <c r="F25" t="n">
+        <v>394.4390563964844</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1057503636175377</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.651041735412536</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45590.95886739998</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1mo</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>229.8418183760209</v>
+      </c>
+      <c r="E26" t="n">
+        <v>236.479995727539</v>
+      </c>
+      <c r="F26" t="n">
+        <v>221.6900024414062</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0643485741221225</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.753182803253436</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45590.96810534633</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1mo</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>186.5595467307351</v>
+      </c>
+      <c r="E27" t="n">
+        <v>191.1600036621093</v>
+      </c>
+      <c r="F27" t="n">
+        <v>180.8000030517578</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0555318706112871</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.535827852696028</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45593.74019865648</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1mo</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>230.2596050444104</v>
+      </c>
+      <c r="E28" t="n">
+        <v>236.479995727539</v>
+      </c>
+      <c r="F28" t="n">
+        <v>221.6900024414062</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.06423181905171881</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.88527147726289</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45593.74117004822</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>164.6940002441406</v>
+      </c>
+      <c r="E29" t="n">
+        <v>167.5599975585938</v>
+      </c>
+      <c r="F29" t="n">
+        <v>162.7200012207031</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0293878121286499</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.018954570863574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
